--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/70.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/70.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1955410197459867</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.140620644525787</v>
+        <v>-2.142609595852663</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06485137876002141</v>
+        <v>-0.05853016086620454</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2113604245216724</v>
+        <v>-0.2231715384268985</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1744674533499896</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.281856926036951</v>
+        <v>-2.291870603707801</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05665099526114377</v>
+        <v>-0.0509098119309143</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2135848052297726</v>
+        <v>-0.2291975547131694</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1550685243899524</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.518869051417863</v>
+        <v>-2.531770703493114</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.07079871527899172</v>
+        <v>-0.05396063515600808</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.258997059137726</v>
+        <v>-0.2790274640828089</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1450400635039186</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.737782390636952</v>
+        <v>-2.757398049521847</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02654043129144565</v>
+        <v>-0.007868929614157345</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2781211219571613</v>
+        <v>-0.3011999104446311</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1415641801284382</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.925869119011842</v>
+        <v>-2.954189565795284</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03201683304178191</v>
+        <v>0.05328293727795644</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3043995543148514</v>
+        <v>-0.3257272605393775</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1385962076806437</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.925298233258406</v>
+        <v>-2.953588793928688</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2323910233704376</v>
+        <v>0.2615055868750062</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3314196502154671</v>
+        <v>-0.3517598948643381</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1310221427902465</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.930758853077331</v>
+        <v>-2.975217496007189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3753399621419102</v>
+        <v>0.406908846449713</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3625926960040604</v>
+        <v>-0.3855592590870085</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1170816025334413</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.66841916167378</v>
+        <v>-2.728146863785687</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5678205590720926</v>
+        <v>0.6119635680517332</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3749649369318947</v>
+        <v>-0.4015166137527679</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09275607072464513</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.302380756809523</v>
+        <v>-2.371002322229771</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6532991121563027</v>
+        <v>0.7105108914766241</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3643852528730229</v>
+        <v>-0.3919256111109047</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.05393999036714162</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.90961318820746</v>
+        <v>-2.001590446102421</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7268970203781373</v>
+        <v>0.7997581444224603</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3194401982034585</v>
+        <v>-0.3527375977091652</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.003027946106292004</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.40508802424282</v>
+        <v>-1.53757377380468</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6747353842612899</v>
+        <v>0.7614953806873477</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2705593254068389</v>
+        <v>-0.304686217032923</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.07980023847686878</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9412988523575062</v>
+        <v>-1.096188208217675</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5195203307597371</v>
+        <v>0.6249658570386484</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.191169000517928</v>
+        <v>-0.2333254978534002</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.175065751673309</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4131380423275254</v>
+        <v>-0.6067006385382588</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2471480541443569</v>
+        <v>0.3603505515901499</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07205332211106248</v>
+        <v>-0.1156553314504276</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2825000758881846</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1173105801609373</v>
+        <v>-0.1092389659310381</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.07081701289929417</v>
+        <v>0.04756737061615039</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05064686011305133</v>
+        <v>0.004426461308406755</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3901356429346952</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6598954042753329</v>
+        <v>0.4123353107107404</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4354891954476348</v>
+        <v>-0.3068038616225923</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1402881218160669</v>
+        <v>0.08791240354168092</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4927860806931573</v>
       </c>
       <c r="E17" t="n">
-        <v>1.12595714060221</v>
+        <v>0.8547034585079859</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8369505733760647</v>
+        <v>-0.7123626866574156</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2828290236547951</v>
+        <v>0.2255733300457478</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5926800398092495</v>
       </c>
       <c r="E18" t="n">
-        <v>1.69132921112059</v>
+        <v>1.420676300892963</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.197301467929645</v>
+        <v>-1.060025401372606</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4098590327631433</v>
+        <v>0.3456166978019471</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.693219838092156</v>
       </c>
       <c r="E19" t="n">
-        <v>2.078894156349992</v>
+        <v>1.786272513266576</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.556242835799261</v>
+        <v>-1.414979107857643</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5679096074908978</v>
+        <v>0.4966641633192804</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7947199359277793</v>
       </c>
       <c r="E20" t="n">
-        <v>2.375463815973998</v>
+        <v>2.078431836477017</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.849950747607965</v>
+        <v>-1.695576774719648</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7021464393157011</v>
+        <v>0.6287485850758399</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8950057821977303</v>
       </c>
       <c r="E21" t="n">
-        <v>2.716688817946113</v>
+        <v>2.405674406934683</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.246942016896508</v>
+        <v>-2.104049800747974</v>
       </c>
       <c r="G21" t="n">
-        <v>0.858913131018901</v>
+        <v>0.7812366832316521</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9930363811543874</v>
       </c>
       <c r="E22" t="n">
-        <v>2.97442299831954</v>
+        <v>2.661471479238758</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.557759423529349</v>
+        <v>-2.414040764863821</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9495650312832881</v>
+        <v>0.8733621518510625</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.086950151477326</v>
       </c>
       <c r="E23" t="n">
-        <v>3.228210991914407</v>
+        <v>2.922247943947804</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.917882207749826</v>
+        <v>-2.783697829103223</v>
       </c>
       <c r="G23" t="n">
-        <v>1.102842976715489</v>
+        <v>1.025308640445922</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.17280365302082</v>
       </c>
       <c r="E24" t="n">
-        <v>3.408854858270939</v>
+        <v>3.102374597570455</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.163084957898787</v>
+        <v>-3.025854025471828</v>
       </c>
       <c r="G24" t="n">
-        <v>1.23159418197362</v>
+        <v>1.14960803468447</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.247112484229946</v>
       </c>
       <c r="E25" t="n">
-        <v>3.572168438518353</v>
+        <v>3.2831624052067</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.416472538569369</v>
+        <v>-3.293931545641887</v>
       </c>
       <c r="G25" t="n">
-        <v>1.321949050868431</v>
+        <v>1.247929077538287</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.306733256309813</v>
       </c>
       <c r="E26" t="n">
-        <v>3.617280611453347</v>
+        <v>3.334864161133279</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.603703548234781</v>
+        <v>-3.495397493981921</v>
       </c>
       <c r="G26" t="n">
-        <v>1.380348955667058</v>
+        <v>1.310532555641061</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.350049787465451</v>
       </c>
       <c r="E27" t="n">
-        <v>3.675621963867005</v>
+        <v>3.411810533870461</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.818775607031711</v>
+        <v>-3.728858051262129</v>
       </c>
       <c r="G27" t="n">
-        <v>1.464375287619931</v>
+        <v>1.398787467645828</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.376938098309663</v>
       </c>
       <c r="E28" t="n">
-        <v>3.672707762873503</v>
+        <v>3.414693018988772</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.986048792312573</v>
+        <v>-3.913670725444235</v>
       </c>
       <c r="G28" t="n">
-        <v>1.512802989353726</v>
+        <v>1.453420502344859</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.388651340711195</v>
       </c>
       <c r="E29" t="n">
-        <v>3.660767955705483</v>
+        <v>3.425169016532597</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.070193143916397</v>
+        <v>-4.011595624818504</v>
       </c>
       <c r="G29" t="n">
-        <v>1.583442172372656</v>
+        <v>1.535449344081382</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.385920278746442</v>
       </c>
       <c r="E30" t="n">
-        <v>3.615996118508115</v>
+        <v>3.398749692498578</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.087258114531131</v>
+        <v>-4.05328614275694</v>
       </c>
       <c r="G30" t="n">
-        <v>1.632067488405718</v>
+        <v>1.588809474328039</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.371053526505077</v>
       </c>
       <c r="E31" t="n">
-        <v>3.597726554556804</v>
+        <v>3.397528631303728</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.135487592044983</v>
+        <v>-4.113269401632405</v>
       </c>
       <c r="G31" t="n">
-        <v>1.596499964141155</v>
+        <v>1.564304081377656</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.347457257118495</v>
       </c>
       <c r="E32" t="n">
-        <v>3.514883468716822</v>
+        <v>3.327479241579214</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.110905959010006</v>
+        <v>-4.094334109262423</v>
       </c>
       <c r="G32" t="n">
-        <v>1.572462990270515</v>
+        <v>1.548480299340104</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.318216387704749</v>
       </c>
       <c r="E33" t="n">
-        <v>3.386318289265099</v>
+        <v>3.211067341532372</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.046569086343914</v>
+        <v>-4.047377231240605</v>
       </c>
       <c r="G33" t="n">
-        <v>1.493735039236552</v>
+        <v>1.475669798711951</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.284964288439451</v>
       </c>
       <c r="E34" t="n">
-        <v>3.32180453960275</v>
+        <v>3.173890236601872</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.899913964580182</v>
+        <v>-3.89548990495139</v>
       </c>
       <c r="G34" t="n">
-        <v>1.419511352400374</v>
+        <v>1.403048983414267</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.248514782929006</v>
       </c>
       <c r="E35" t="n">
-        <v>3.213870536962706</v>
+        <v>3.085082126543294</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.801160792926889</v>
+        <v>-3.792605740554483</v>
       </c>
       <c r="G35" t="n">
-        <v>1.389421525733685</v>
+        <v>1.381275425175038</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.208743733784197</v>
       </c>
       <c r="E36" t="n">
-        <v>3.076728652954552</v>
+        <v>2.968401861398683</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.678109601353307</v>
+        <v>-3.679506624663398</v>
       </c>
       <c r="G36" t="n">
-        <v>1.323459824384736</v>
+        <v>1.313207667729278</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.164554462564974</v>
       </c>
       <c r="E37" t="n">
-        <v>2.953330721476239</v>
+        <v>2.868061371184153</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.566466976038297</v>
+        <v>-3.566488323261983</v>
       </c>
       <c r="G37" t="n">
-        <v>1.233880164670072</v>
+        <v>1.225414465676809</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.115259166419172</v>
       </c>
       <c r="E38" t="n">
-        <v>2.861114374675993</v>
+        <v>2.792708111254638</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.417803080525695</v>
+        <v>-3.421755976431699</v>
       </c>
       <c r="G38" t="n">
-        <v>1.167518355357176</v>
+        <v>1.158820276586072</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.061602750034521</v>
       </c>
       <c r="E39" t="n">
-        <v>2.679083548700535</v>
+        <v>2.628893176210937</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.221661129772994</v>
+        <v>-3.225415191538378</v>
       </c>
       <c r="G39" t="n">
-        <v>1.087834048702073</v>
+        <v>1.080735181945402</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.004381688526814</v>
       </c>
       <c r="E40" t="n">
-        <v>2.571233715113883</v>
+        <v>2.532805052954695</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.09351618566755</v>
+        <v>-3.094354216677402</v>
       </c>
       <c r="G40" t="n">
-        <v>1.017597413329797</v>
+        <v>1.012866868560939</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9443210704843729</v>
       </c>
       <c r="E41" t="n">
-        <v>2.401092682810952</v>
+        <v>2.379407563069851</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.934514744604745</v>
+        <v>-2.938585355201362</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9160322023963566</v>
+        <v>0.9121274902238156</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8834074492922912</v>
       </c>
       <c r="E42" t="n">
-        <v>2.158343033623871</v>
+        <v>2.139566625590182</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.876798560884754</v>
+        <v>-2.886300515107811</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8513921991539206</v>
+        <v>0.8526992591641918</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8219956575266524</v>
       </c>
       <c r="E43" t="n">
-        <v>1.949382989928633</v>
+        <v>1.9342984317513</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.776337306376227</v>
+        <v>-2.785836210995902</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7783249219208568</v>
+        <v>0.7763371904353349</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7599990057760888</v>
       </c>
       <c r="E44" t="n">
-        <v>1.693585917624558</v>
+        <v>1.68193460293664</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.657129529947173</v>
+        <v>-2.671975609139897</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7617564267369958</v>
+        <v>0.7635489836059584</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6981301725244671</v>
       </c>
       <c r="E45" t="n">
-        <v>1.483798821491649</v>
+        <v>1.471756547649936</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.623118523249671</v>
+        <v>-2.639915738687312</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6866788509533703</v>
+        <v>0.6882603752681781</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6371966934238139</v>
       </c>
       <c r="E46" t="n">
-        <v>1.246917829056239</v>
+        <v>1.240863146498161</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.531241902266374</v>
+        <v>-2.549540742410169</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5907249102460124</v>
+        <v>0.5912232154389155</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5773154171160584</v>
       </c>
       <c r="E47" t="n">
-        <v>1.066437421441074</v>
+        <v>1.062624807290722</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.478812510972434</v>
+        <v>-2.499735229867599</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5162048019609347</v>
+        <v>0.5200710891308407</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.518209854280583</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8722435573299065</v>
+        <v>0.8776590430187525</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.405748893263431</v>
+        <v>-2.428129932496701</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4346669463691938</v>
+        <v>0.4299181039800334</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4604917823886027</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7036870989451667</v>
+        <v>0.7117404915609481</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.302731461198654</v>
+        <v>-2.328609785592397</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3502283080388392</v>
+        <v>0.3497043861775126</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4045324167054896</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5493704586004639</v>
+        <v>0.5516247254217247</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.249906231385504</v>
+        <v>-2.272084167033417</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3072667154100595</v>
+        <v>0.3083798206451247</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3509787287649789</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3561591766995373</v>
+        <v>0.3604646067567018</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.191792379384272</v>
+        <v>-2.215013279389424</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2243370208339795</v>
+        <v>0.2186336525857084</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3009293438304811</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2357529061406729</v>
+        <v>0.2373100336284107</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.135208818361002</v>
+        <v>-2.159309833902701</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1809765400826066</v>
+        <v>0.1784612272116976</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2544509744562197</v>
       </c>
       <c r="E53" t="n">
-        <v>0.05002779062615206</v>
+        <v>0.04678545230855938</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.063587663052508</v>
+        <v>-2.08728857063026</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1402161511762106</v>
+        <v>0.136017457237477</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2106396982555852</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1501109703212789</v>
+        <v>-0.161394502841118</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.951311635114695</v>
+        <v>-1.96379244192299</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07990902442139292</v>
+        <v>0.07508394194763902</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1689763594443035</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.258207821782014</v>
+        <v>-0.2704294123026916</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.919316416253845</v>
+        <v>-1.926723292952274</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05239855229667176</v>
+        <v>0.04466597795685988</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1294165989474522</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4065844446558675</v>
+        <v>-0.4123506347338437</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.902224609129334</v>
+        <v>-1.905741411751463</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05604290434642595</v>
+        <v>-0.06765396426967873</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.09241009194175308</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5163079545614897</v>
+        <v>-0.5268851989376545</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.817068704083124</v>
+        <v>-1.815922053210838</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.07808543760410076</v>
+        <v>-0.09032715550711104</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.05846570407846496</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7008486041217659</v>
+        <v>-0.7192066065712056</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.780138007106029</v>
+        <v>-1.776587658846678</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1283172846997173</v>
+        <v>-0.1394550461778136</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.02842199898839145</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8201149329357881</v>
+        <v>-0.8346889875066829</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.756232776101566</v>
+        <v>-1.751614456737229</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.200670954740986</v>
+        <v>-0.2145814156155789</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.002726429644144031</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.941047565038686</v>
+        <v>-0.9515876042535691</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.704267534442631</v>
+        <v>-1.691873946291111</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2251001076067759</v>
+        <v>-0.2404146058792429</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.0190148416321431</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.12142306629745</v>
+        <v>-1.139070511158478</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.636702351634511</v>
+        <v>-1.619765464361895</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2699920991774632</v>
+        <v>-0.2829882889576109</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.0374279054778422</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.243753026670777</v>
+        <v>-1.25696024900508</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.562657981477297</v>
+        <v>-1.540350742645914</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3191608545335079</v>
+        <v>-0.3328023403896549</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.05337061409996374</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.332607490700788</v>
+        <v>-1.350271403420088</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.582307185999413</v>
+        <v>-1.559293049103678</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3866010036028942</v>
+        <v>-0.4001930858842246</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.06769532428093336</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.481135373902475</v>
+        <v>-1.499698309699302</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.524505613384676</v>
+        <v>-1.49288671558138</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4302493669136922</v>
+        <v>-0.438483296049791</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.08145931298854094</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.675622609859158</v>
+        <v>-1.706871895732345</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.491134413477083</v>
+        <v>-1.449338379261569</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.457545146960198</v>
+        <v>-0.4710798966979142</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.09526982517548178</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.798539923844195</v>
+        <v>-1.825854001511003</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.462462042463156</v>
+        <v>-1.420750177301034</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5132760388773751</v>
+        <v>-0.5236831153847272</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1092642576559917</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.965772244439714</v>
+        <v>-1.99516127224882</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.436001243823119</v>
+        <v>-1.391893000322053</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5406590375806559</v>
+        <v>-0.5535411721942516</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1229799271792387</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.123433689775704</v>
+        <v>-2.163342629417359</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.3979458531181</v>
+        <v>-1.347802444520612</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5947028889059478</v>
+        <v>-0.6071538096010827</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1348578350152094</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.202058564215296</v>
+        <v>-2.2404841767711</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.405151455993202</v>
+        <v>-1.349453499792569</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6363952366064148</v>
+        <v>-0.6506137074227655</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1439009869259503</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.308145117125469</v>
+        <v>-2.345823576852257</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.349872515297495</v>
+        <v>-1.283027038887938</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6473640500570519</v>
+        <v>-0.6596838378066859</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1497795115925797</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.402251608102957</v>
+        <v>-2.439844069014324</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.304079060966574</v>
+        <v>-1.2274577759501</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7026557990869703</v>
+        <v>-0.7183594267512026</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1524947671504646</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.413437553314517</v>
+        <v>-2.441548797305835</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.303661875223679</v>
+        <v>-1.227320543797831</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.750011260271043</v>
+        <v>-0.7683094904941615</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1522167993018441</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.409495635980694</v>
+        <v>-2.442481366020583</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.244315373534739</v>
+        <v>-1.158432443041845</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7506730242053147</v>
+        <v>-0.76240362858121</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1489373157155073</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.42243388329655</v>
+        <v>-2.447751690588362</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.28264400870294</v>
+        <v>-1.192345862431067</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7814465719506379</v>
+        <v>-0.7964475709952564</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1423080065421425</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.318968159534363</v>
+        <v>-2.344075544192697</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.208819819910032</v>
+        <v>-1.112897595077865</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7654062680728407</v>
+        <v>-0.7733517047288377</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1321667268576433</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.208855520236976</v>
+        <v>-2.233446912002781</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.217912517358992</v>
+        <v>-1.120483178534581</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7585592985556671</v>
+        <v>-0.7715939133384498</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.11900172935308</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.063052152698323</v>
+        <v>-2.084855597050712</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.121760962352368</v>
+        <v>-1.01324082594197</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7284334865690503</v>
+        <v>-0.7424519034034276</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1036442998852211</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.878488936073007</v>
+        <v>-1.903989719567843</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.107385741922093</v>
+        <v>-0.9944808857665531</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7007748037198793</v>
+        <v>-0.712463323569079</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.08715594072215919</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.672361364000587</v>
+        <v>-1.688746882981423</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.045116500350177</v>
+        <v>-0.9320994187901153</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6636940662563043</v>
+        <v>-0.67133027312919</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.07032384930697658</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.47840353919132</v>
+        <v>-1.4934606509382</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.9344116280756671</v>
+        <v>-0.8194190134436186</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6192869616236317</v>
+        <v>-0.6214302228817244</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.0529102431773073</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.203708684638884</v>
+        <v>-1.218459006285359</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.8393268243326751</v>
+        <v>-0.719687224064483</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5602673774174292</v>
+        <v>-0.5594793599030707</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.03472387576708376</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.9173863023049218</v>
+        <v>-0.9218332339590919</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.810264714006307</v>
+        <v>-0.6948927287133211</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5017692753898462</v>
+        <v>-0.497835896945498</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.01560635247729419</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.6979807570996964</v>
+        <v>-0.7058145782718485</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.673700424879033</v>
+        <v>-0.5591329249586778</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4437652091104292</v>
+        <v>-0.4389523250502102</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.00386968986610899</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4281731969300418</v>
+        <v>-0.4404155247537288</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5705030662146151</v>
+        <v>-0.463687048175051</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3965000161865151</v>
+        <v>-0.3894359149084192</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.02328122787991864</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.1764436856191996</v>
+        <v>-0.1927773613425126</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4482603244980624</v>
+        <v>-0.3383733558510718</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3660381379070101</v>
+        <v>-0.3595095469830989</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.04264159309451576</v>
       </c>
       <c r="E86" t="n">
-        <v>0.06679085050589569</v>
+        <v>0.03985553357934794</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3792569487341708</v>
+        <v>-0.2826967468741253</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3157367598542443</v>
+        <v>-0.3114063230493331</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.06087285558420618</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2742328016367079</v>
+        <v>0.2478427537951729</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.2782821410158228</v>
+        <v>-0.1840573254270456</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2590397535850983</v>
+        <v>-0.2538218821955187</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.07602851438038169</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4774498322396863</v>
+        <v>0.451891106280559</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.219088729416747</v>
+        <v>-0.1360394903880245</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1813742843700309</v>
+        <v>-0.1740198608498028</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.08586222307819527</v>
       </c>
       <c r="E89" t="n">
-        <v>0.670554378022182</v>
+        <v>0.6449310004713193</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.08727023307524977</v>
+        <v>-0.01346617166467427</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1638744403127756</v>
+        <v>-0.1556899147514934</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08869937887681102</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8689146102762156</v>
+        <v>0.8445738959085541</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.02195931708839098</v>
+        <v>0.04162003409718008</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1018491670115586</v>
+        <v>-0.09427456212702447</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08304129806458674</v>
       </c>
       <c r="E91" t="n">
-        <v>1.06043458214052</v>
+        <v>1.034986251823884</v>
       </c>
       <c r="F91" t="n">
-        <v>0.08377104214656161</v>
+        <v>0.1337070777139553</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08333807447225504</v>
+        <v>-0.07990422106216348</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06912586435219488</v>
       </c>
       <c r="E92" t="n">
-        <v>1.149655608497256</v>
+        <v>1.129348299564929</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2205079388253552</v>
+        <v>0.2632243433420822</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08114845924272951</v>
+        <v>-0.07474368221619816</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04869843759806949</v>
       </c>
       <c r="E93" t="n">
-        <v>1.285476404319574</v>
+        <v>1.26653592762384</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3251489797316358</v>
+        <v>0.3615087909552945</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07683388037541375</v>
+        <v>-0.07111526411022397</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02388463847959695</v>
       </c>
       <c r="E94" t="n">
-        <v>1.371407518545931</v>
+        <v>1.351503367180935</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4074102012459999</v>
+        <v>0.4379660073097241</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1138530158506371</v>
+        <v>-0.1112785406740836</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.003506791648058976</v>
       </c>
       <c r="E95" t="n">
-        <v>1.366334198356741</v>
+        <v>1.350787320306433</v>
       </c>
       <c r="F95" t="n">
-        <v>0.48626989514614</v>
+        <v>0.5148904229025426</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1319908369357709</v>
+        <v>-0.1268766520612384</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0313855060655176</v>
       </c>
       <c r="E96" t="n">
-        <v>1.35303853752431</v>
+        <v>1.334543912843279</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5697619365861817</v>
+        <v>0.5932158262898515</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1089077790035639</v>
+        <v>-0.1031354897188203</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05696291115698981</v>
       </c>
       <c r="E97" t="n">
-        <v>1.32158736790712</v>
+        <v>1.303680706758473</v>
       </c>
       <c r="F97" t="n">
-        <v>0.587544783837448</v>
+        <v>0.6081674217596533</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1073579705639471</v>
+        <v>-0.09962234662075144</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08076944797807825</v>
       </c>
       <c r="E98" t="n">
-        <v>1.260392806567633</v>
+        <v>1.242468457719361</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6040120321889688</v>
+        <v>0.6219741961191991</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1534039320550417</v>
+        <v>-0.1447674552722892</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1029706529826494</v>
       </c>
       <c r="E99" t="n">
-        <v>1.156369005386222</v>
+        <v>1.141700413110431</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5733574189756114</v>
+        <v>0.5858748210245118</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1791596623927587</v>
+        <v>-0.1732702683380794</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1296548030802309</v>
       </c>
       <c r="E100" t="n">
-        <v>1.126413971189094</v>
+        <v>1.118530746442126</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5536490521478514</v>
+        <v>0.5589004691746522</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1919198128710048</v>
+        <v>-0.1843244706834613</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1593881464590093</v>
       </c>
       <c r="E101" t="n">
-        <v>1.085313246545073</v>
+        <v>1.07722081900598</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5294913139832144</v>
+        <v>0.5333374737707877</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.222231040743353</v>
+        <v>-0.214956516831779</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1982882916899094</v>
       </c>
       <c r="E102" t="n">
-        <v>1.039303880294583</v>
+        <v>1.034404997418943</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5276652114770307</v>
+        <v>0.5339571531783637</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2207483235781785</v>
+        <v>-0.2105632581971627</v>
       </c>
     </row>
   </sheetData>
